--- a/Informe Diario/Entrapetrol.xlsx
+++ b/Informe Diario/Entrapetrol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="162">
   <si>
     <t>Del 11 de junio al día de  hoy</t>
   </si>
@@ -82,331 +82,337 @@
     <t>PICK UP</t>
   </si>
   <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>BOGOTA</t>
+  </si>
+  <si>
+    <t>GUADUAS - TABIO</t>
+  </si>
+  <si>
+    <t>PROGRAMADO</t>
+  </si>
+  <si>
+    <t>GS13925</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Camilo Rangel</t>
+  </si>
+  <si>
+    <t>FVN737</t>
+  </si>
+  <si>
+    <t>VACIO</t>
+  </si>
+  <si>
+    <t>BARRANQUILLA/ HOTEL HL COLLECTION SMART</t>
+  </si>
+  <si>
+    <t>BARRANQUILLA/ HOTEL DEL MAR INN</t>
+  </si>
+  <si>
+    <t>DISPONIBLE</t>
+  </si>
+  <si>
+    <t>FVQ470</t>
+  </si>
+  <si>
+    <t>OASIS</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN</t>
+  </si>
+  <si>
+    <t>Back up-</t>
+  </si>
+  <si>
+    <t>FVQ473</t>
+  </si>
+  <si>
+    <t>BUCARAMANGA</t>
+  </si>
+  <si>
+    <t>SAN MARTIN/ HOTEL SAN MARTIN</t>
+  </si>
+  <si>
+    <t>FVQ475</t>
+  </si>
+  <si>
+    <t>CAMERON SURFACE</t>
+  </si>
+  <si>
+    <t>VALLEDUPAR</t>
+  </si>
+  <si>
+    <t>SANTA MARTA</t>
+  </si>
+  <si>
+    <t>ingresa a mantenimiento por fallas mecánicas</t>
+  </si>
+  <si>
+    <t>FVQ486</t>
+  </si>
+  <si>
+    <t>TCPF</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>GS13960</t>
+  </si>
+  <si>
+    <t>FVQ491</t>
+  </si>
+  <si>
+    <t>TSW</t>
+  </si>
+  <si>
+    <t>YOPAL</t>
+  </si>
+  <si>
+    <t>TRINIDAD</t>
+  </si>
+  <si>
+    <t>GS13941</t>
+  </si>
+  <si>
+    <t>FVQ494</t>
+  </si>
+  <si>
+    <t>WLPS</t>
+  </si>
+  <si>
+    <t>FVQ495</t>
+  </si>
+  <si>
+    <t>HSE</t>
+  </si>
+  <si>
+    <t>DUITAMA</t>
+  </si>
+  <si>
+    <t>GS13980</t>
+  </si>
+  <si>
+    <t>FVQ496</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>RUBIALES</t>
+  </si>
+  <si>
+    <t>GS13961</t>
+  </si>
+  <si>
+    <t>FVR345</t>
+  </si>
+  <si>
+    <t>TAURAMENA</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>FVR348</t>
+  </si>
+  <si>
+    <t>VILLETA/HOTEL GYN</t>
+  </si>
+  <si>
+    <t>FVR349</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
+  </si>
+  <si>
+    <t>GS13893</t>
+  </si>
+  <si>
+    <t>Pasada de Km para mantenimiento, Taller asignado no tenia VDO.</t>
+  </si>
+  <si>
+    <t>FVS295</t>
+  </si>
+  <si>
+    <t>GS13883</t>
+  </si>
+  <si>
+    <t>FVS297</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>GS13973</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío retorno a base</t>
+  </si>
+  <si>
+    <t>FVS298</t>
+  </si>
+  <si>
+    <t>BOSQUES DE VIZCAYA</t>
+  </si>
+  <si>
+    <t>Esperado para cita de MT</t>
+  </si>
+  <si>
+    <t>FVS299</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>GS13972</t>
+  </si>
+  <si>
+    <t>ARVAL - ENTRAPETROL</t>
+  </si>
+  <si>
+    <t>LHR715</t>
+  </si>
+  <si>
+    <t>MIDPM</t>
+  </si>
+  <si>
+    <t>MILONGA</t>
+  </si>
+  <si>
+    <t>GS13939</t>
+  </si>
+  <si>
+    <t>LHT229</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>BARRANCABERMEJA</t>
+  </si>
+  <si>
+    <t>GS13989</t>
+  </si>
+  <si>
+    <t>LHT237</t>
+  </si>
+  <si>
+    <t>MOSQUERA</t>
+  </si>
+  <si>
+    <t>LHT624</t>
+  </si>
+  <si>
+    <t>WLES</t>
+  </si>
+  <si>
+    <t>BASE COPS</t>
+  </si>
+  <si>
+    <t>LHT626</t>
+  </si>
+  <si>
+    <t>PUERTO WILCHES</t>
+  </si>
+  <si>
+    <t>GS13930</t>
+  </si>
+  <si>
+    <t>LHV855</t>
+  </si>
+  <si>
+    <t>AUT HIBRIDO</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>LHV857</t>
+  </si>
+  <si>
     <t>DMHT</t>
   </si>
   <si>
-    <t>TIBASOSA</t>
-  </si>
-  <si>
-    <t>BOGOTA</t>
-  </si>
-  <si>
-    <t>DISPONIBLE</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Camilo Rangel</t>
-  </si>
-  <si>
-    <t>FVN737</t>
-  </si>
-  <si>
-    <t>SANTA MARTA</t>
-  </si>
-  <si>
-    <t>PROGRAMADO</t>
-  </si>
-  <si>
-    <t>GS13531</t>
-  </si>
-  <si>
-    <t>FVQ470</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>VILLA NUEVA</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO</t>
-  </si>
-  <si>
-    <t>GS13545</t>
-  </si>
-  <si>
-    <t>Back up-</t>
-  </si>
-  <si>
-    <t>FVQ473</t>
-  </si>
-  <si>
-    <t>TSW</t>
-  </si>
-  <si>
-    <t>BARRANCABERMEJA</t>
-  </si>
-  <si>
-    <t>PUERTO WILCHES</t>
-  </si>
-  <si>
-    <t>GS13498</t>
-  </si>
-  <si>
-    <t>FVQ475</t>
-  </si>
-  <si>
-    <t>CAMERON SURFACE</t>
-  </si>
-  <si>
-    <t>VALLEDUPAR</t>
-  </si>
-  <si>
-    <t>MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>ingresa a mantenimiento por fallas mecánicas</t>
-  </si>
-  <si>
-    <t>FVQ486</t>
-  </si>
-  <si>
-    <t>YOPAL</t>
-  </si>
-  <si>
-    <t>PAZ DE ARIPORO</t>
-  </si>
-  <si>
-    <t>GS13540</t>
-  </si>
-  <si>
-    <t>FVQ491</t>
+    <t>LHV946</t>
+  </si>
+  <si>
+    <t>GS13955</t>
+  </si>
+  <si>
+    <t>LHV956</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>Sin conductor</t>
+  </si>
+  <si>
+    <t>LQS612</t>
+  </si>
+  <si>
+    <t>LQS616</t>
+  </si>
+  <si>
+    <t>LQT416</t>
+  </si>
+  <si>
+    <t>PICK UP ELECTRICA</t>
+  </si>
+  <si>
+    <t>FVR346</t>
+  </si>
+  <si>
+    <t>DUITAMA/ HOTEL OLIMPIA</t>
+  </si>
+  <si>
+    <t>FVN739</t>
+  </si>
+  <si>
+    <t>COSMOTRANS</t>
+  </si>
+  <si>
+    <t>Diana Gallego</t>
+  </si>
+  <si>
+    <t>TAR556</t>
+  </si>
+  <si>
+    <t>CANO SUR</t>
+  </si>
+  <si>
+    <t>GS13520</t>
+  </si>
+  <si>
+    <t>TFX160-TAR647</t>
+  </si>
+  <si>
+    <t>DHT</t>
+  </si>
+  <si>
+    <t>GS13976</t>
+  </si>
+  <si>
+    <t>LUN551</t>
   </si>
   <si>
     <t>COTA</t>
   </si>
   <si>
-    <t>FVQ494</t>
-  </si>
-  <si>
-    <t>HSE</t>
-  </si>
-  <si>
-    <t>FUNDACION</t>
-  </si>
-  <si>
-    <t>SERVICIO</t>
-  </si>
-  <si>
-    <t>GS13316</t>
-  </si>
-  <si>
-    <t>FVQ495</t>
-  </si>
-  <si>
-    <t>111713 - GSD MANAGEMENT</t>
-  </si>
-  <si>
-    <t>FVQ496</t>
-  </si>
-  <si>
-    <t>WLPS</t>
-  </si>
-  <si>
-    <t>FVR345</t>
-  </si>
-  <si>
-    <t>CHIA</t>
-  </si>
-  <si>
-    <t>FVR348</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>FVR349</t>
-  </si>
-  <si>
-    <t>PUERTO GAITAN</t>
-  </si>
-  <si>
-    <t>Pasada de Km para mantenimiento, Taller asignado no tenia VDO.</t>
-  </si>
-  <si>
-    <t>FVS295</t>
-  </si>
-  <si>
-    <t>WLES</t>
-  </si>
-  <si>
-    <t>HOTEL NH COLLECTION EN CALLE 100.</t>
-  </si>
-  <si>
-    <t>FVS297</t>
-  </si>
-  <si>
-    <t>GS13386</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío retorno a base</t>
-  </si>
-  <si>
-    <t>FVS298</t>
-  </si>
-  <si>
-    <t>VACIO</t>
-  </si>
-  <si>
-    <t>Esperado para cita de MT</t>
-  </si>
-  <si>
-    <t>FVS299</t>
-  </si>
-  <si>
-    <t>TCPF</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>ARVAL - ENTRAPETROL</t>
-  </si>
-  <si>
-    <t>LHR715</t>
-  </si>
-  <si>
-    <t>MIDPM</t>
-  </si>
-  <si>
-    <t>MILONGA</t>
-  </si>
-  <si>
-    <t>GS13530</t>
-  </si>
-  <si>
-    <t>LHT229</t>
-  </si>
-  <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
-    <t>ACORDEONERO - SAN MARTIN</t>
-  </si>
-  <si>
-    <t>GS13526</t>
-  </si>
-  <si>
-    <t>LHT237</t>
-  </si>
-  <si>
-    <t>MOSQUERA</t>
-  </si>
-  <si>
-    <t>LHT624</t>
-  </si>
-  <si>
-    <t>WIT</t>
-  </si>
-  <si>
-    <t>RIOHACHA</t>
-  </si>
-  <si>
-    <t>LHT626</t>
-  </si>
-  <si>
-    <t>BARRANQUILLA</t>
-  </si>
-  <si>
-    <t>GS13363</t>
-  </si>
-  <si>
-    <t>LHV855</t>
-  </si>
-  <si>
-    <t>AUT HIBRIDO</t>
-  </si>
-  <si>
-    <t>(WLPS) Wireline Production Services</t>
-  </si>
-  <si>
-    <t>LHV857</t>
-  </si>
-  <si>
-    <t>LOGISTICS</t>
-  </si>
-  <si>
-    <t>LHV946</t>
-  </si>
-  <si>
-    <t>ACACIAS</t>
-  </si>
-  <si>
-    <t>LHV956</t>
-  </si>
-  <si>
-    <t>GSS</t>
-  </si>
-  <si>
-    <t>Sin conductor</t>
-  </si>
-  <si>
-    <t>LQS612</t>
-  </si>
-  <si>
-    <t>LQS616</t>
-  </si>
-  <si>
-    <t>(FACILITIES) FACILITIES</t>
-  </si>
-  <si>
-    <t>URB11471</t>
-  </si>
-  <si>
-    <t>LQT416</t>
-  </si>
-  <si>
-    <t>PICK UP ELECTRICA</t>
-  </si>
-  <si>
-    <t>URB11473</t>
-  </si>
-  <si>
-    <t>FVR346</t>
-  </si>
-  <si>
-    <t>SOGAMOSO</t>
-  </si>
-  <si>
-    <t>FVN739</t>
-  </si>
-  <si>
-    <t>GS13538</t>
-  </si>
-  <si>
-    <t>COSMOTRANS</t>
-  </si>
-  <si>
-    <t>Diana Gallego</t>
-  </si>
-  <si>
-    <t>TAR556</t>
-  </si>
-  <si>
-    <t>CANO SUR</t>
-  </si>
-  <si>
-    <t>GS13520</t>
-  </si>
-  <si>
-    <t>TFX160-TAR647</t>
-  </si>
-  <si>
-    <t>GS13539</t>
-  </si>
-  <si>
-    <t>TFW499-LUN551</t>
-  </si>
-  <si>
     <t>GS13516</t>
   </si>
   <si>
-    <t>TAR543-TFX160</t>
+    <t>TAR543-TFW512</t>
   </si>
   <si>
     <t>VILLVICENCIO</t>
@@ -418,27 +424,15 @@
     <t>CABUYARO</t>
   </si>
   <si>
-    <t>GS13483</t>
-  </si>
-  <si>
     <t>TAR649</t>
   </si>
   <si>
-    <t>WBPE</t>
-  </si>
-  <si>
-    <t>FUSAGASUGA</t>
-  </si>
-  <si>
-    <t>GS13507</t>
+    <t>CAMERON TPRS</t>
   </si>
   <si>
     <t>TFX158-TAR648</t>
   </si>
   <si>
-    <t>RUBIALES</t>
-  </si>
-  <si>
     <t>LJT097</t>
   </si>
   <si>
@@ -460,7 +454,7 @@
     <t>TFX161</t>
   </si>
   <si>
-    <t>GS13429</t>
+    <t>GS13766</t>
   </si>
   <si>
     <t>GEV100</t>
@@ -478,7 +472,7 @@
     <t>TAR541-TFW605</t>
   </si>
   <si>
-    <t>GS13180</t>
+    <t>GS13718</t>
   </si>
   <si>
     <t>TAR552-TFX162</t>
@@ -496,22 +490,16 @@
     <t>LLP191</t>
   </si>
   <si>
-    <t>GS13447</t>
+    <t>GS13837</t>
   </si>
   <si>
     <t>LLP995</t>
   </si>
   <si>
-    <t>GS13422</t>
-  </si>
-  <si>
     <t>LLP991</t>
   </si>
   <si>
-    <t>PENDARE</t>
-  </si>
-  <si>
-    <t>GS13528</t>
+    <t>GS13838</t>
   </si>
 </sst>
 </file>
@@ -745,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -816,9 +804,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -835,12 +820,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
@@ -1216,24 +1195,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="40" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="41" width="35.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="42" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="41" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="41" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="41" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="41" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="43" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="44" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="41" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="44" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="41" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="45" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="45" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="44" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="42" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="37" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="38" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="39" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="38" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="38" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="38" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="38" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="40" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="41" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="38" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="41" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="38" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="42" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="42" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="41" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="39" width="28.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25">
@@ -1342,23 +1321,27 @@
         <v>24</v>
       </c>
       <c r="I3" s="13">
-        <v>0</v>
+        <v>2809.2</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="M3" s="22">
+        <v>45324</v>
+      </c>
+      <c r="N3" s="22">
+        <v>45324</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="P3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="25"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
@@ -1377,34 +1360,30 @@
         <v>21</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="13">
-        <v>283.3</v>
+        <v>1876.5</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="22">
-        <v>45303</v>
-      </c>
-      <c r="N4" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="27"/>
+      <c r="R4" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1">
@@ -1417,13 +1396,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>35</v>
@@ -1432,30 +1411,22 @@
         <v>36</v>
       </c>
       <c r="I5" s="13">
-        <v>155</v>
+        <v>2548</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13">
         <v>570</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="22">
-        <v>45303</v>
-      </c>
-      <c r="N5" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O5" s="23" t="s">
+      <c r="L5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -1469,42 +1440,38 @@
         <v>28</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="H6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="13">
-        <v>9.2</v>
+        <v>1020</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
         <v>964</v>
       </c>
-      <c r="L6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="22">
-        <v>45303</v>
-      </c>
-      <c r="N6" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="3"/>
+      <c r="L6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="27"/>
+      <c r="R6" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1">
@@ -1517,39 +1484,37 @@
         <v>28</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="I7" s="13">
-        <v>20.7</v>
+        <v>83.3</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13">
         <v>1345</v>
       </c>
-      <c r="L7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="22">
-        <v>45216</v>
-      </c>
+      <c r="L7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="23"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="25" t="s">
-        <v>48</v>
+      <c r="R7" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -1563,42 +1528,44 @@
         <v>28</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13">
-        <v>0.9</v>
+        <v>2680.9</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13">
         <v>291</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M8" s="22">
-        <v>45303</v>
+        <v>45324</v>
       </c>
       <c r="N8" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>52</v>
+        <v>45324</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="27"/>
+      <c r="Q8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
@@ -1611,42 +1578,42 @@
         <v>28</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="I9" s="13">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13">
         <v>411</v>
       </c>
-      <c r="L9" s="30" t="s">
-        <v>47</v>
+      <c r="L9" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="M9" s="22">
-        <v>45278</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="25"/>
+        <v>45324</v>
+      </c>
+      <c r="N9" s="22">
+        <v>45326</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1">
@@ -1668,33 +1635,27 @@
         <v>56</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I10" s="13">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13">
         <v>378</v>
       </c>
-      <c r="L10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="22">
-        <v>45300</v>
-      </c>
-      <c r="N10" s="22">
-        <v>45304</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="L10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="25"/>
+      <c r="R10" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
@@ -1707,38 +1668,44 @@
         <v>19</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I11" s="13">
-        <v>1.5</v>
+        <v>3621.2</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13">
         <v>552</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="31" t="s">
+      <c r="M11" s="22">
+        <v>45324</v>
+      </c>
+      <c r="N11" s="22">
+        <v>45324</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="25"/>
+      <c r="R11" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
@@ -1751,38 +1718,42 @@
         <v>28</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="H12" s="20" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I12" s="13">
-        <v>305.8</v>
+        <v>2338.9</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13">
         <v>604</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="31" t="s">
-        <v>27</v>
+      <c r="M12" s="22">
+        <v>45325</v>
+      </c>
+      <c r="N12" s="22">
+        <v>45333</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="27"/>
+      <c r="R12" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
@@ -1795,38 +1766,36 @@
         <v>19</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I13" s="13">
-        <v>29.2</v>
+        <v>2398.6</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="22"/>
+      <c r="L13" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="22">
+        <v>45315</v>
+      </c>
       <c r="N13" s="22"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
@@ -1839,40 +1808,36 @@
         <v>28</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="13">
-        <v>0.1</v>
+        <v>1775.3</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="22">
-        <v>45278</v>
-      </c>
+      <c r="L14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="22"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="24" t="s">
+      <c r="O14" s="25"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="27"/>
+      <c r="R14" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
@@ -1885,39 +1850,41 @@
         <v>19</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I15" s="13">
-        <v>0</v>
+        <v>2529.7</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="M15" s="22">
+        <v>45320</v>
+      </c>
+      <c r="N15" s="22">
+        <v>45325</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
@@ -1931,42 +1898,42 @@
         <v>28</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I16" s="13">
-        <v>0</v>
+        <v>1734</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13">
-        <v>25568</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>47</v>
+        <v>25569</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="M16" s="22">
-        <v>45278</v>
-      </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="27"/>
+        <v>45319</v>
+      </c>
+      <c r="N16" s="22">
+        <v>45326</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
@@ -1979,41 +1946,43 @@
         <v>19</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="13">
-        <v>79.7</v>
+        <v>2964.8</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="29" t="s">
-        <v>58</v>
+      <c r="L17" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="M17" s="22">
-        <v>45300</v>
+        <v>45325</v>
       </c>
       <c r="N17" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="3"/>
+        <v>45325</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="25" t="s">
-        <v>76</v>
+      <c r="R17" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -2027,41 +1996,39 @@
         <v>28</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I18" s="13">
-        <v>0</v>
+        <v>1557.6</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13">
-        <v>25568</v>
+        <v>25569</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="24" t="s">
+      <c r="O18" s="25"/>
+      <c r="P18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>79</v>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2075,688 +2042,666 @@
         <v>28</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I19" s="13">
-        <v>0</v>
+        <v>2897.5</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13">
-        <v>25568.29</v>
+        <v>25568.79</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24" t="s">
+      <c r="M19" s="22">
+        <v>45324</v>
+      </c>
+      <c r="N19" s="22">
+        <v>45324</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="25"/>
+      <c r="R19" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I20" s="13">
-        <v>248.8</v>
+        <v>3104.2</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="21" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="M20" s="22">
-        <v>45302</v>
+        <v>45323</v>
       </c>
       <c r="N20" s="22">
-        <v>45308</v>
+        <v>45330</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="27"/>
+      <c r="R20" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I21" s="13">
-        <v>31.2</v>
+        <v>1293.6</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13">
         <v>191</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>58</v>
+      <c r="L21" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="M21" s="22">
-        <v>45302</v>
+        <v>45324</v>
       </c>
       <c r="N21" s="22">
-        <v>45311</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>91</v>
+        <v>45325</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="25"/>
+      <c r="R21" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I22" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13">
         <v>241</v>
       </c>
-      <c r="L22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="22"/>
+      <c r="L22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="22">
+        <v>45317</v>
+      </c>
       <c r="N22" s="22"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="24" t="s">
+      <c r="O22" s="25"/>
+      <c r="P22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="27"/>
+      <c r="R22" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I23" s="13">
-        <v>8</v>
+        <v>1077</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13">
         <v>1009</v>
       </c>
-      <c r="L23" s="30" t="s">
-        <v>25</v>
+      <c r="L23" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="23"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="27"/>
+      <c r="R23" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I24" s="13">
-        <v>47.1</v>
+        <v>1834.6</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13">
         <v>1966</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M24" s="22">
-        <v>45294</v>
+        <v>45324</v>
       </c>
       <c r="N24" s="22">
-        <v>45311</v>
+        <v>45324</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>27</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="27"/>
+      <c r="R24" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="13">
-        <v>0</v>
+        <v>1154.2</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="28" t="s">
-        <v>25</v>
+      <c r="L25" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
-      <c r="O25" s="26"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="25"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I26" s="13">
-        <v>77.4</v>
+        <v>1138</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="23"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" s="25"/>
+      <c r="R26" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>83</v>
+      <c r="B27" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I27" s="13">
-        <v>13.7</v>
+        <v>2322</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13">
         <v>957</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="M27" s="22">
+        <v>45323</v>
+      </c>
+      <c r="N27" s="22">
+        <v>45324</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="27"/>
+      <c r="R27" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>83</v>
+      <c r="B28" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I28" s="13">
-        <v>56</v>
+        <v>2913</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="29" t="s">
-        <v>25</v>
+      <c r="L28" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
-      <c r="O28" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="O28" s="23"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="27" t="s">
-        <v>109</v>
+      <c r="R28" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>83</v>
+      <c r="B29" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I29" s="13">
-        <v>49.1</v>
+        <v>737.8</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="30" t="s">
-        <v>25</v>
+      <c r="L29" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="23"/>
+      <c r="P29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R29" s="25"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>83</v>
+      <c r="B30" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="13">
-        <v>11</v>
+        <v>801.6</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="M30" s="22">
-        <v>45302</v>
-      </c>
-      <c r="N30" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O30" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="P30" s="24" t="s">
+      <c r="L30" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="27"/>
+      <c r="R30" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>83</v>
+      <c r="B31" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="13">
-        <v>47.9</v>
+        <v>975.9</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="22">
-        <v>45302</v>
-      </c>
-      <c r="N31" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P31" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" s="25"/>
+      <c r="R31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I32" s="13">
-        <v>0</v>
+        <v>1269.2</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
-      <c r="O32" s="26"/>
+      <c r="O32" s="25"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="27"/>
+      <c r="Q32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="13">
-        <v>173.5</v>
+        <v>617.9</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="30" t="s">
-        <v>31</v>
+      <c r="L33" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="M33" s="22">
-        <v>45303</v>
-      </c>
-      <c r="N33" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="P33" s="24" t="s">
+        <v>45317</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="25"/>
+      <c r="R33" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2769,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>124</v>
@@ -2782,8 +2727,8 @@
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="34" t="s">
-        <v>58</v>
+      <c r="L34" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="M34" s="22">
         <v>45302</v>
@@ -2796,13 +2741,13 @@
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="27"/>
+      <c r="R34" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2815,71 +2760,67 @@
         <v>21</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I35" s="13">
         <v>4075</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="34" t="s">
-        <v>58</v>
+      <c r="L35" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="M35" s="22">
-        <v>45302</v>
+        <v>45324</v>
       </c>
       <c r="N35" s="22">
-        <v>45308</v>
-      </c>
-      <c r="O35" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q35" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R35" s="25"/>
+        <v>45324</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="13">
-        <v>5148</v>
+        <v>3726</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M36" s="22">
         <v>45302</v>
@@ -2887,106 +2828,94 @@
       <c r="N36" s="22">
         <v>45332</v>
       </c>
-      <c r="O36" s="26" t="s">
-        <v>129</v>
+      <c r="O36" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="27"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I37" s="13">
         <v>4079</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="30" t="s">
-        <v>25</v>
+      <c r="L37" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="23"/>
-      <c r="P37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="25"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I38" s="13">
         <v>4432</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M38" s="22">
-        <v>45301</v>
-      </c>
-      <c r="N38" s="22">
-        <v>45305</v>
-      </c>
-      <c r="O38" s="26" t="s">
-        <v>134</v>
-      </c>
+      <c r="L38" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="27"/>
+      <c r="R38" s="26"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
@@ -2997,19 +2926,19 @@
         <v>122</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="I39" s="8">
         <v>4122</v>
@@ -3017,24 +2946,14 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="22">
-        <v>45303</v>
-      </c>
-      <c r="N39" s="22">
-        <v>45303</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
@@ -3045,19 +2964,19 @@
         <v>122</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I40" s="8">
         <v>5441</v>
@@ -3065,7 +2984,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -3078,34 +2997,34 @@
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I41" s="13">
         <v>2360</v>
       </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="30" t="s">
-        <v>58</v>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="M41" s="22">
         <v>45302</v>
@@ -3114,7 +3033,7 @@
         <v>45332</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -3124,34 +3043,34 @@
       <c r="A42" s="1">
         <v>2</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I42" s="13">
         <v>3342</v>
       </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="30" t="s">
-        <v>58</v>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="M42" s="22">
         <v>45302</v>
@@ -3160,7 +3079,7 @@
         <v>45332</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -3170,34 +3089,34 @@
       <c r="A43" s="1">
         <v>3</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I43" s="13">
         <v>2965</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
-      <c r="L43" s="38" t="s">
-        <v>58</v>
+      <c r="L43" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="M43" s="22">
         <v>45302</v>
@@ -3206,7 +3125,7 @@
         <v>45332</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3216,26 +3135,26 @@
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I44" s="13">
         <v>2253</v>
@@ -3243,16 +3162,16 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M44" s="22">
-        <v>45300</v>
+        <v>45315</v>
       </c>
       <c r="N44" s="22">
-        <v>45303</v>
+        <v>45326</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -3262,20 +3181,20 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>124</v>
@@ -3288,8 +3207,8 @@
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="29" t="s">
-        <v>58</v>
+      <c r="L45" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="M45" s="22">
         <v>45302</v>
@@ -3298,7 +3217,7 @@
         <v>45332</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -3308,20 +3227,20 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>124</v>
@@ -3334,8 +3253,8 @@
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="29" t="s">
-        <v>58</v>
+      <c r="L46" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="M46" s="22">
         <v>45302</v>
@@ -3344,7 +3263,7 @@
         <v>45332</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -3354,84 +3273,82 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I47" s="13">
         <v>2280</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
-      <c r="L47" s="29" t="s">
-        <v>58</v>
+      <c r="L47" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="M47" s="22">
-        <v>45283</v>
+        <v>45314</v>
       </c>
       <c r="N47" s="22">
-        <v>45314</v>
+        <v>45345</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q47" s="24" t="s">
         <v>27</v>
       </c>
+      <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I48" s="13">
         <v>4346.03</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
-      <c r="L48" s="29" t="s">
-        <v>25</v>
+      <c r="L48" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -3444,43 +3361,43 @@
       <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="E49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I49" s="13">
-        <v>263.4</v>
+        <v>3969.6</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="30" t="s">
-        <v>58</v>
+      <c r="L49" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="M49" s="22">
-        <v>45299</v>
+        <v>45320</v>
       </c>
       <c r="N49" s="22">
-        <v>45305</v>
+        <v>45326</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -3490,44 +3407,38 @@
       <c r="A50" s="1">
         <v>7</v>
       </c>
-      <c r="B50" s="39" t="s">
-        <v>157</v>
+      <c r="B50" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I50" s="13">
-        <v>42.5</v>
+        <v>2105.3</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
-      <c r="L50" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M50" s="22">
-        <v>45301</v>
-      </c>
-      <c r="N50" s="22">
-        <v>45305</v>
-      </c>
-      <c r="O50" s="23" t="s">
-        <v>162</v>
-      </c>
+      <c r="L50" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="23"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -3536,43 +3447,43 @@
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>157</v>
+      <c r="B51" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="I51" s="13">
-        <v>71.6</v>
+        <v>1621.1</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
-      <c r="L51" s="29" t="s">
-        <v>58</v>
+      <c r="L51" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="M51" s="22">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="N51" s="22">
-        <v>45317</v>
+        <v>45326</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
